--- a/Data Dictionary_ADAfinal.xlsx
+++ b/Data Dictionary_ADAfinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="21600" windowHeight="12900" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="-80" windowWidth="13920" windowHeight="12900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,153 +21,152 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
-    <r>
-      <t xml:space="preserve">1 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Extremely </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">dangerous for the environment 
-2 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Very</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> dangerous 
-3 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Somewhat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> dangerous 
-4 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Not very</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> dangerous, or
-5 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> dangerous at all 
-8 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Don't know </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-NA == No answer I Not applicable </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable </t>
-  </si>
-  <si>
-    <t>GSS year for respondent</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terperature rise from climate change </t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>temp_f</t>
-  </si>
-  <si>
-    <t>Concerned about the environment</t>
-  </si>
-  <si>
-    <t>conc_env</t>
-  </si>
-  <si>
-    <t>conc_env_f</t>
-  </si>
-  <si>
     <t>1 == Very concerned
 2 == Concerned
 3 == Somewhat
 4 == Not very
 5 == Not at all 
 8 == Don't know</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_env_f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Extremely </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">dangerous for the environment 
+2 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Very</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dangerous 
+3 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Somewhat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dangerous 
+4 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Not very</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dangerous, or
+5 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> dangerous at all 
+8 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Don't know </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+NA == No answer I Not applicable </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t>GSS year for respondent</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temp_f</t>
+  </si>
+  <si>
+    <t>Concerned about the environment</t>
+  </si>
+  <si>
+    <t>conc_env</t>
   </si>
   <si>
     <t>More important in life than save environment</t>
@@ -485,6 +484,10 @@
   </si>
   <si>
     <t>ballot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature rise from climate change </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,12 +519,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -554,6 +563,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,7 +910,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -900,220 +919,220 @@
     <col min="3" max="3" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="12">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="1:3" ht="12">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="84">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="72">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="7" spans="1:3" ht="12">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="12">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="84">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="12">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="12">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="48">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="36">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" ht="12">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="12">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="24">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="12">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="24">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="12">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="12">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="7"/>
     </row>
